--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="135">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -143,6 +149,9 @@
     <t>cognome</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.genitoreMutazioneCognome,!=,1}</t>
+  </si>
+  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -275,6 +284,9 @@
     <t>evento.padre</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.genitoreMutazioneCognome,!=,2}</t>
+  </si>
+  <si>
     <t>Figlio</t>
   </si>
   <si>
@@ -291,6 +303,9 @@
   </si>
   <si>
     <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneNascita.provvedimentoCambioCognome,=,1}</t>
   </si>
   <si>
     <t>Provincia ente - Descrizione</t>
@@ -460,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -472,6 +487,7 @@
     <col min="4" max="4" width="52.27734375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="59.11328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -493,85 +509,100 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -593,2125 +624,2446 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,34 +32,37 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del dichiarante</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Copia dell'atto di riconoscimento</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Atto cambiamento del cognome del genitore</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>114-quater.2</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del dichiarante</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Copia dell'atto di riconoscimento</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Atto cambiamento del cognome del genitore</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>114-quater.2</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -625,2445 +628,2445 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
@@ -152,7 +152,7 @@
     <t>cognome</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.genitoreMutazioneCognome,!=,1}</t>
+    <t>evento.trascrizioneNascita.genitoreMutazioneCognome,!=,1</t>
   </si>
   <si>
     <t>Nome</t>
@@ -287,7 +287,7 @@
     <t>evento.padre</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.genitoreMutazioneCognome,!=,2}</t>
+    <t>evento.trascrizioneNascita.genitoreMutazioneCognome,!=,2</t>
   </si>
   <si>
     <t>Figlio</t>
@@ -308,7 +308,7 @@
     <t>idProvinciaEnte</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.provvedimentoCambioCognome,=,1}</t>
+    <t>evento.trascrizioneNascita.provvedimentoCambioCognome,=,1</t>
   </si>
   <si>
     <t>Provincia ente - Descrizione</t>
@@ -490,7 +490,7 @@
     <col min="4" max="4" width="52.27734375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="59.11328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="57.73046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -209,6 +209,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -383,22 +389,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Atto Nascita Intestatario</t>
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1099,7 +1105,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>44</v>
@@ -1191,7 +1197,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>44</v>
@@ -1306,7 +1312,7 @@
         <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>44</v>
@@ -1369,574 +1375,574 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>21</v>
@@ -1944,19 +1950,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1967,19 +1973,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1990,19 +1996,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2013,19 +2019,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2036,22 +2042,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>21</v>
@@ -2059,19 +2065,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2082,19 +2088,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>15</v>
@@ -2105,19 +2111,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2128,22 +2134,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>21</v>
@@ -2151,22 +2157,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>21</v>
@@ -2174,19 +2180,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2197,19 +2203,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2220,22 +2226,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>21</v>
@@ -2243,19 +2249,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2266,22 +2272,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>21</v>
@@ -2289,19 +2295,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>15</v>
@@ -2312,19 +2318,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2335,22 +2341,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>21</v>
@@ -2358,22 +2364,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>21</v>
@@ -2384,22 +2390,22 @@
         <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
@@ -2407,22 +2413,22 @@
         <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
@@ -2430,131 +2436,131 @@
         <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2565,19 +2571,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2588,19 +2594,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2611,19 +2617,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2634,19 +2640,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2657,19 +2663,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2680,19 +2686,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2703,19 +2709,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2726,19 +2732,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2749,19 +2755,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2772,19 +2778,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2795,19 +2801,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2818,19 +2824,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2841,19 +2847,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2864,19 +2870,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2887,19 +2893,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2910,19 +2916,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2933,19 +2939,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2956,19 +2962,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2979,19 +2985,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3002,19 +3008,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3028,16 +3034,16 @@
         <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3051,21 +3057,90 @@
         <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -285,6 +285,36 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -484,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -494,7 +524,7 @@
     <col min="2" max="2" width="45.2734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="52.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="30.109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="57.73046875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1398,778 +1428,778 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>15</v>
@@ -2180,19 +2210,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2203,19 +2233,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2226,19 +2256,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2249,19 +2279,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2272,19 +2302,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2295,22 +2325,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>21</v>
@@ -2318,22 +2348,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>21</v>
@@ -2341,22 +2371,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>21</v>
@@ -2364,19 +2394,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>15</v>
@@ -2387,22 +2417,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>21</v>
@@ -2410,19 +2440,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2433,19 +2463,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2456,111 +2486,111 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2571,22 +2601,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>21</v>
@@ -2594,22 +2624,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>21</v>
@@ -2617,19 +2647,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2640,19 +2670,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2663,19 +2693,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2686,19 +2716,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2709,22 +2739,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>21</v>
@@ -2732,19 +2762,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2755,22 +2785,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>21</v>
@@ -2778,111 +2808,111 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E102" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2893,19 +2923,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2916,19 +2946,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2939,19 +2969,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2962,19 +2992,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2985,19 +3015,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3008,19 +3038,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3031,19 +3061,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3054,19 +3084,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3077,19 +3107,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3100,19 +3130,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3123,24 +3153,346 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
+      <c r="E128" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -161,6 +161,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -215,13 +221,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -514,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -951,7 +957,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>44</v>
@@ -1043,7 +1049,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>44</v>
@@ -1158,7 +1164,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>44</v>
@@ -1250,7 +1256,7 @@
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>44</v>
@@ -1365,7 +1371,7 @@
         <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>44</v>
@@ -1434,7 +1440,7 @@
         <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>44</v>
@@ -1543,712 +1549,712 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>21</v>
@@ -2256,19 +2262,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2279,19 +2285,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2302,19 +2308,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2325,19 +2331,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2348,22 +2354,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>21</v>
@@ -2371,19 +2377,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2394,22 +2400,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>21</v>
@@ -2417,19 +2423,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>15</v>
@@ -2440,19 +2446,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2463,22 +2469,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>21</v>
@@ -2486,22 +2492,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>21</v>
@@ -2509,19 +2515,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2532,19 +2538,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2555,22 +2561,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>21</v>
@@ -2578,19 +2584,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2601,22 +2607,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>21</v>
@@ -2624,19 +2630,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>15</v>
@@ -2647,19 +2653,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2670,22 +2676,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>21</v>
@@ -2693,22 +2699,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>21</v>
@@ -2716,19 +2722,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2739,22 +2745,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>21</v>
@@ -2762,19 +2768,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2785,22 +2791,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>21</v>
@@ -2811,22 +2817,22 @@
         <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
@@ -2834,22 +2840,22 @@
         <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
@@ -2857,131 +2863,131 @@
         <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2992,19 +2998,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3015,19 +3021,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3038,19 +3044,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3061,19 +3067,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3084,19 +3090,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3107,19 +3113,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3130,19 +3136,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3153,19 +3159,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3176,19 +3182,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3199,19 +3205,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3222,19 +3228,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3245,19 +3251,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3268,19 +3274,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3291,19 +3297,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3314,19 +3320,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3337,19 +3343,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3360,19 +3366,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3383,19 +3389,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3406,19 +3412,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3429,19 +3435,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3455,16 +3461,16 @@
         <v>143</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3478,21 +3484,90 @@
         <v>143</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E131" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -520,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1233,7 +1239,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>44</v>
@@ -1256,7 +1262,7 @@
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>44</v>
@@ -1394,7 +1400,7 @@
         <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>44</v>
@@ -1463,7 +1469,7 @@
         <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>44</v>
@@ -1572,735 +1578,735 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>21</v>
@@ -2308,19 +2314,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2337,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2354,19 +2360,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2377,19 +2383,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2400,19 +2406,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2423,22 +2429,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>21</v>
@@ -2446,19 +2452,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2469,19 +2475,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>15</v>
@@ -2492,22 +2498,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>21</v>
@@ -2515,22 +2521,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>21</v>
@@ -2538,22 +2544,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>21</v>
@@ -2561,19 +2567,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2584,19 +2590,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2607,22 +2613,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>21</v>
@@ -2630,22 +2636,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>21</v>
@@ -2653,22 +2659,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>21</v>
@@ -2676,22 +2682,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>21</v>
@@ -2699,19 +2705,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>15</v>
@@ -2722,19 +2728,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2745,22 +2751,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>21</v>
@@ -2768,22 +2774,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>21</v>
@@ -2791,19 +2797,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2814,22 +2820,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>21</v>
@@ -2837,19 +2843,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2860,22 +2866,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>21</v>
@@ -2886,22 +2892,22 @@
         <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104">
@@ -2909,22 +2915,22 @@
         <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
@@ -2932,131 +2938,131 @@
         <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3067,19 +3073,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3090,19 +3096,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3113,19 +3119,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3136,19 +3142,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3159,19 +3165,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3182,19 +3188,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3205,19 +3211,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3228,19 +3234,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3251,19 +3257,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3274,19 +3280,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3297,19 +3303,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3320,19 +3326,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3343,19 +3349,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3366,19 +3372,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3389,19 +3395,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3412,19 +3418,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3435,19 +3441,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3458,19 +3464,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3481,19 +3487,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3504,19 +3510,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3530,16 +3536,16 @@
         <v>145</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3553,21 +3559,90 @@
         <v>145</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="154">
   <si>
     <t>Sezione</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -526,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1423,7 +1429,7 @@
         <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>44</v>
@@ -1492,7 +1498,7 @@
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>44</v>
@@ -1601,758 +1607,758 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>21</v>
@@ -2360,19 +2366,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2389,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2412,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2435,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2458,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2475,22 +2481,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>21</v>
@@ -2498,19 +2504,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2527,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>15</v>
@@ -2544,22 +2550,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>21</v>
@@ -2567,22 +2573,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>21</v>
@@ -2590,22 +2596,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>21</v>
@@ -2613,22 +2619,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>21</v>
@@ -2636,19 +2642,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2659,19 +2665,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>15</v>
@@ -2682,22 +2688,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>21</v>
@@ -2705,22 +2711,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>21</v>
@@ -2728,22 +2734,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>21</v>
@@ -2751,22 +2757,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>21</v>
@@ -2774,19 +2780,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>15</v>
@@ -2797,19 +2803,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2820,22 +2826,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>21</v>
@@ -2843,22 +2849,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>21</v>
@@ -2866,19 +2872,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2889,22 +2895,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>21</v>
@@ -2912,19 +2918,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2935,22 +2941,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>21</v>
@@ -2961,22 +2967,22 @@
         <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107">
@@ -2984,22 +2990,22 @@
         <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108">
@@ -3007,131 +3013,131 @@
         <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3142,19 +3148,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3165,19 +3171,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3188,19 +3194,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3211,19 +3217,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3234,19 +3240,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3257,19 +3263,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3280,19 +3286,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3303,19 +3309,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3326,19 +3332,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3349,19 +3355,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3372,19 +3378,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3395,19 +3401,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3418,19 +3424,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3441,19 +3447,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3464,19 +3470,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3487,19 +3493,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3510,19 +3516,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3533,19 +3539,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3556,19 +3562,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3579,19 +3585,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3605,16 +3611,16 @@
         <v>147</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3628,21 +3634,90 @@
         <v>147</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E137" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="156">
   <si>
     <t>Sezione</t>
   </si>
@@ -447,6 +447,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -532,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3384,7 +3390,7 @@
         <v>145</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>125</v>
@@ -3401,19 +3407,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3424,19 +3430,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3447,19 +3453,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3470,19 +3476,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3493,19 +3499,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3516,19 +3522,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3539,19 +3545,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3562,19 +3568,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3585,19 +3591,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3608,19 +3614,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3631,19 +3637,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3654,19 +3660,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3680,16 +3686,16 @@
         <v>149</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3703,21 +3709,67 @@
         <v>149</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E139" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>sceltaCognome</t>
+  </si>
+  <si>
+    <t>Nuovo cognome</t>
+  </si>
+  <si>
+    <t>nuovoCognome</t>
   </si>
   <si>
     <t>Madre</t>
@@ -538,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -923,62 +929,62 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -987,21 +993,21 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -1010,12 +1016,12 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
@@ -1024,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -1033,12 +1039,12 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
@@ -1047,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -1056,12 +1062,12 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
@@ -1070,7 +1076,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -1079,21 +1085,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -1102,12 +1108,12 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>61</v>
@@ -1116,7 +1122,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>62</v>
@@ -1125,12 +1131,12 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>63</v>
@@ -1139,7 +1145,7 @@
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>64</v>
@@ -1148,12 +1154,12 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>65</v>
@@ -1162,7 +1168,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>66</v>
@@ -1171,12 +1177,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>67</v>
@@ -1185,7 +1191,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>68</v>
@@ -1194,21 +1200,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>70</v>
@@ -1217,12 +1223,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>71</v>
@@ -1231,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>72</v>
@@ -1240,21 +1246,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>74</v>
@@ -1263,12 +1269,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>75</v>
@@ -1277,7 +1283,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>76</v>
@@ -1286,12 +1292,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>77</v>
@@ -1300,7 +1306,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>78</v>
@@ -1309,12 +1315,12 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>79</v>
@@ -1323,7 +1329,7 @@
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>80</v>
@@ -1332,12 +1338,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
@@ -1346,7 +1352,7 @@
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>82</v>
@@ -1355,12 +1361,12 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
@@ -1369,7 +1375,7 @@
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>84</v>
@@ -1378,12 +1384,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
@@ -1392,7 +1398,7 @@
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>86</v>
@@ -1401,12 +1407,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>87</v>
@@ -1415,7 +1421,7 @@
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>88</v>
@@ -1424,12 +1430,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>89</v>
@@ -1438,7 +1444,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>90</v>
@@ -1447,21 +1453,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>92</v>
@@ -1470,12 +1476,12 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
@@ -1484,7 +1490,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>94</v>
@@ -1493,12 +1499,12 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>95</v>
@@ -1507,7 +1513,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>96</v>
@@ -1516,21 +1522,21 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>98</v>
@@ -1539,12 +1545,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>99</v>
@@ -1553,7 +1559,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>100</v>
@@ -1562,12 +1568,12 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>101</v>
@@ -1576,7 +1582,7 @@
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>102</v>
@@ -1585,12 +1591,12 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>103</v>
@@ -1599,7 +1605,7 @@
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>104</v>
@@ -1608,12 +1614,12 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>105</v>
@@ -1622,7 +1628,7 @@
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>106</v>
@@ -1631,67 +1637,67 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>50</v>
@@ -1700,21 +1706,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>52</v>
@@ -1723,12 +1729,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>53</v>
@@ -1737,7 +1743,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>54</v>
@@ -1746,12 +1752,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>55</v>
@@ -1760,7 +1766,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>56</v>
@@ -1769,12 +1775,12 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>57</v>
@@ -1783,7 +1789,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>58</v>
@@ -1792,21 +1798,21 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>60</v>
@@ -1815,12 +1821,12 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>61</v>
@@ -1829,7 +1835,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>62</v>
@@ -1838,12 +1844,12 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>63</v>
@@ -1852,7 +1858,7 @@
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>64</v>
@@ -1861,12 +1867,12 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>65</v>
@@ -1875,7 +1881,7 @@
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>66</v>
@@ -1884,12 +1890,12 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>67</v>
@@ -1898,7 +1904,7 @@
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>68</v>
@@ -1907,21 +1913,21 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>70</v>
@@ -1930,12 +1936,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>71</v>
@@ -1944,7 +1950,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>72</v>
@@ -1953,21 +1959,21 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>74</v>
@@ -1976,12 +1982,12 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>75</v>
@@ -1990,7 +1996,7 @@
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>76</v>
@@ -1999,12 +2005,12 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>77</v>
@@ -2013,7 +2019,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>78</v>
@@ -2022,12 +2028,12 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>79</v>
@@ -2036,7 +2042,7 @@
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>80</v>
@@ -2045,12 +2051,12 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>81</v>
@@ -2059,7 +2065,7 @@
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>82</v>
@@ -2068,12 +2074,12 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>83</v>
@@ -2082,7 +2088,7 @@
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>84</v>
@@ -2091,12 +2097,12 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>85</v>
@@ -2105,7 +2111,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>86</v>
@@ -2114,12 +2120,12 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>87</v>
@@ -2128,7 +2134,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>88</v>
@@ -2137,12 +2143,12 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>89</v>
@@ -2151,7 +2157,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>90</v>
@@ -2160,21 +2166,21 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>92</v>
@@ -2183,12 +2189,12 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>93</v>
@@ -2197,7 +2203,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>94</v>
@@ -2206,12 +2212,12 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>95</v>
@@ -2220,7 +2226,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>96</v>
@@ -2229,21 +2235,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>98</v>
@@ -2252,12 +2258,12 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>99</v>
@@ -2266,7 +2272,7 @@
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>100</v>
@@ -2275,12 +2281,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>101</v>
@@ -2289,7 +2295,7 @@
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>102</v>
@@ -2298,12 +2304,12 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>103</v>
@@ -2312,7 +2318,7 @@
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>104</v>
@@ -2321,12 +2327,12 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>105</v>
@@ -2335,7 +2341,7 @@
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>106</v>
@@ -2344,50 +2350,50 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>21</v>
@@ -2395,16 +2401,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>50</v>
@@ -2418,16 +2424,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>52</v>
@@ -2441,7 +2447,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>53</v>
@@ -2450,7 +2456,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>54</v>
@@ -2464,7 +2470,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>55</v>
@@ -2473,7 +2479,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>56</v>
@@ -2487,7 +2493,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>57</v>
@@ -2496,7 +2502,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>58</v>
@@ -2510,16 +2516,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>60</v>
@@ -2533,7 +2539,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>61</v>
@@ -2542,13 +2548,13 @@
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>21</v>
@@ -2556,7 +2562,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>63</v>
@@ -2565,13 +2571,13 @@
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>21</v>
@@ -2579,7 +2585,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>65</v>
@@ -2588,13 +2594,13 @@
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>21</v>
@@ -2602,7 +2608,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>67</v>
@@ -2611,7 +2617,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>68</v>
@@ -2625,22 +2631,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>21</v>
@@ -2648,7 +2654,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>71</v>
@@ -2657,7 +2663,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>72</v>
@@ -2671,22 +2677,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>21</v>
@@ -2694,7 +2700,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>75</v>
@@ -2703,7 +2709,7 @@
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>76</v>
@@ -2717,7 +2723,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>77</v>
@@ -2726,13 +2732,13 @@
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>21</v>
@@ -2740,7 +2746,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>79</v>
@@ -2749,13 +2755,13 @@
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>21</v>
@@ -2763,7 +2769,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>81</v>
@@ -2772,13 +2778,13 @@
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>21</v>
@@ -2786,7 +2792,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>83</v>
@@ -2795,13 +2801,13 @@
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>21</v>
@@ -2809,7 +2815,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>85</v>
@@ -2818,13 +2824,13 @@
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>21</v>
@@ -2832,7 +2838,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>87</v>
@@ -2841,13 +2847,13 @@
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>21</v>
@@ -2855,7 +2861,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>89</v>
@@ -2864,7 +2870,7 @@
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>90</v>
@@ -2878,22 +2884,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>21</v>
@@ -2901,7 +2907,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>93</v>
@@ -2910,7 +2916,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>94</v>
@@ -2924,7 +2930,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>95</v>
@@ -2933,7 +2939,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>96</v>
@@ -2947,16 +2953,16 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>98</v>
@@ -2970,7 +2976,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>99</v>
@@ -2979,13 +2985,13 @@
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>21</v>
@@ -2993,7 +2999,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>101</v>
@@ -3002,13 +3008,13 @@
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>21</v>
@@ -3016,7 +3022,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>103</v>
@@ -3025,13 +3031,13 @@
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>21</v>
@@ -3042,50 +3048,50 @@
         <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E110" s="2" t="s">
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>119</v>
@@ -3094,7 +3100,7 @@
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>120</v>
@@ -3103,12 +3109,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>121</v>
@@ -3117,53 +3123,53 @@
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>122</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>128</v>
@@ -3177,7 +3183,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>129</v>
@@ -3186,7 +3192,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>130</v>
@@ -3200,7 +3206,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>131</v>
@@ -3209,7 +3215,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>132</v>
@@ -3223,7 +3229,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>133</v>
@@ -3232,7 +3238,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>134</v>
@@ -3246,7 +3252,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>135</v>
@@ -3255,7 +3261,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>136</v>
@@ -3269,7 +3275,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>137</v>
@@ -3278,10 +3284,10 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3292,19 +3298,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3315,7 +3321,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>140</v>
@@ -3324,10 +3330,10 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3338,19 +3344,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3361,7 +3367,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>143</v>
@@ -3370,7 +3376,7 @@
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>144</v>
@@ -3384,7 +3390,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>145</v>
@@ -3393,7 +3399,7 @@
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>146</v>
@@ -3407,16 +3413,16 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>148</v>
@@ -3430,19 +3436,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3453,16 +3459,16 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>128</v>
@@ -3476,7 +3482,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>129</v>
@@ -3485,7 +3491,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>130</v>
@@ -3499,7 +3505,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>131</v>
@@ -3508,7 +3514,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>132</v>
@@ -3522,7 +3528,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>133</v>
@@ -3531,7 +3537,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>134</v>
@@ -3545,7 +3551,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>135</v>
@@ -3554,7 +3560,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>136</v>
@@ -3568,7 +3574,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>137</v>
@@ -3577,10 +3583,10 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3591,19 +3597,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3614,7 +3620,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>140</v>
@@ -3623,10 +3629,10 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3637,19 +3643,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3660,7 +3666,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>143</v>
@@ -3669,7 +3675,7 @@
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>144</v>
@@ -3683,7 +3689,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>145</v>
@@ -3692,7 +3698,7 @@
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>146</v>
@@ -3706,16 +3712,16 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>148</v>
@@ -3732,16 +3738,16 @@
         <v>151</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3752,7 +3758,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>154</v>
@@ -3770,6 +3776,29 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="162">
   <si>
     <t>Sezione</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -544,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1050,7 +1062,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>46</v>
@@ -1073,7 +1085,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>46</v>
@@ -1119,7 +1131,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>46</v>
@@ -1142,7 +1154,7 @@
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>46</v>
@@ -1234,7 +1246,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>46</v>
@@ -1257,7 +1269,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>46</v>
@@ -1280,7 +1292,7 @@
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>46</v>
@@ -1303,7 +1315,7 @@
         <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>46</v>
@@ -1487,7 +1499,7 @@
         <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>46</v>
@@ -1510,7 +1522,7 @@
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>46</v>
@@ -1556,7 +1568,7 @@
         <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>46</v>
@@ -1579,7 +1591,7 @@
         <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>46</v>
@@ -1665,827 +1677,827 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>21</v>
@@ -2493,19 +2505,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2516,19 +2528,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2539,19 +2551,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2562,22 +2574,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>21</v>
@@ -2585,22 +2597,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>21</v>
@@ -2608,22 +2620,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>21</v>
@@ -2631,22 +2643,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>21</v>
@@ -2654,19 +2666,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2677,19 +2689,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2700,19 +2712,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>15</v>
@@ -2723,22 +2735,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>21</v>
@@ -2746,22 +2758,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>21</v>
@@ -2769,19 +2781,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>15</v>
@@ -2792,19 +2804,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2815,22 +2827,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>21</v>
@@ -2838,22 +2850,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>21</v>
@@ -2861,19 +2873,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>15</v>
@@ -2884,22 +2896,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>21</v>
@@ -2907,22 +2919,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>21</v>
@@ -2930,19 +2942,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2953,22 +2965,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>21</v>
@@ -2976,19 +2988,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2999,19 +3011,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>15</v>
@@ -3022,22 +3034,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>21</v>
@@ -3045,22 +3057,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>21</v>
@@ -3068,111 +3080,111 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3183,22 +3195,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>21</v>
@@ -3206,111 +3218,111 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3321,19 +3333,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3344,19 +3356,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3367,19 +3379,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3390,19 +3402,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3413,19 +3425,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3436,19 +3448,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3459,19 +3471,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3482,19 +3494,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3505,19 +3517,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3528,19 +3540,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3551,19 +3563,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3574,19 +3586,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3597,19 +3609,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3620,19 +3632,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3643,19 +3655,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3666,19 +3678,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3689,19 +3701,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3712,19 +3724,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3735,19 +3747,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3758,19 +3770,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3781,24 +3793,162 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
+      <c r="E145" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E146" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
+      <c r="B147" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>21</v>
       </c>
     </row>
